--- a/doc/04财务记录/XDM-I研发采购18年7-9月.xlsx
+++ b/doc/04财务记录/XDM-I研发采购18年7-9月.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="51" uniqueCount="29">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="55" uniqueCount="33">
   <si>
     <t>备注</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -126,6 +126,21 @@
   <si>
     <t>压力传感器等多种器件</t>
     <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>研发设备</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>京东</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>固态硬盘240G</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://item.jd.com/4311178.html</t>
   </si>
 </sst>
 </file>
@@ -488,7 +503,7 @@
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="F16" sqref="F16"/>
+      <selection pane="bottomLeft" activeCell="H15" sqref="H15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25"/>
@@ -776,11 +791,27 @@
       </c>
     </row>
     <row r="14" spans="2:9">
-      <c r="C14" s="1"/>
-      <c r="D14" s="1"/>
-      <c r="E14" s="1"/>
-      <c r="F14" s="1"/>
-      <c r="G14" s="1"/>
+      <c r="B14">
+        <v>20180922</v>
+      </c>
+      <c r="C14" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="D14" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="E14" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="F14" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="G14" s="1">
+        <v>1</v>
+      </c>
+      <c r="H14">
+        <v>329</v>
+      </c>
     </row>
     <row r="15" spans="2:9">
       <c r="C15" s="1"/>
@@ -935,7 +966,7 @@
       </c>
       <c r="H41">
         <f>SUM(H2:H40)</f>
-        <v>1176.74</v>
+        <v>1505.74</v>
       </c>
     </row>
   </sheetData>
